--- a/periodicRunnings.xlsx
+++ b/periodicRunnings.xlsx
@@ -5,18 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_20" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="periodic_10" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="periodic_50" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="periodic_100" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="periodic_300" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="periodic_500" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="periodic_700" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="periodic_1000" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="23">
   <si>
     <t>Periodic Data – p =.998 q = .70</t>
   </si>
@@ -65,14 +71,36 @@
   <si>
     <t>Content Size = 10</t>
   </si>
+  <si>
+    <t>Periodic Data – p =.998 q = .001</t>
+  </si>
+  <si>
+    <t>Size = 20MB</t>
+  </si>
+  <si>
+    <t>Content Size = 50</t>
+  </si>
+  <si>
+    <t>Content Size = 100</t>
+  </si>
+  <si>
+    <t>Content Size = 300</t>
+  </si>
+  <si>
+    <t>Content Size = 700</t>
+  </si>
+  <si>
+    <t>Content Size = 1000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00E+000"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -139,12 +167,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -167,8 +199,8 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="1" sqref="D6:H15 N1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:H24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -710,8 +742,8 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6:H15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="1" sqref="D6:H24 A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1244,4 +1276,5725 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:H24 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>46.6450544581011</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.8844714</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>24.7372593837701</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.92704965</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>24.1502143331522</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.931376</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>6.21756374712671</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.962205</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>49.7162445343204</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.8793875</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>25.3822567872155</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.9274629</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>24.8437329199336</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.93053475</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>10.0454102771579</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.9498255</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>50.1512058857455</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.874885</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>98.0560390263035</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.76868925</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1289.82329420869</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>12.6682421737183</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.9357475</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>51.2031459212854</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.8700581</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>147.122648796169</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.697568</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1699.37972639986</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>24.695870356559</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.9128274</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3954.13206801107</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>194.35590453238</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.338807</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>2165.20515318826</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>48.3457299842635</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.8855263</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3985.65165404544</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>220.152786033507</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.5988535</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>2546.14894971356</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>49.3745479142957</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.8845551</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3994.40782903934</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>245.368666421298</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.55980575</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>2834.86888731396</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>49.505073032359</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.8824076</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4008.01603206413</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>292.44041526539</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.515405</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>3358.52225020991</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>49.6369060323732</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.8801476</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4017.67778224186</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>341.541719321015</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.16605425</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>3861.74937246573</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>49.9212492293407</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.8778778</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4176.23721027354</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>388.681592039801</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.2601989</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>4202.5635637739</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>51.0261355866475</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.875476</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>51.0261355866475</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.875476</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>51.6934783507713</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.8647837</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>388.681592039801</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.2601989</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>52.3235584205611</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.8542937</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>563.427895315097</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.00513</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>52.9583879466709</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.8439212</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>747.859252888606</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.00324</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>53.6017710025139</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.8337087</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>935.891436593355</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>54.2545024455217</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.8235089</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1119.57008508733</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>54.9132233787557</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.8134588</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1305.48302872063</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>55.5796400662509</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0.8035239</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1557.753719137</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.04024</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>56.2537268094011</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0.7937941</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1679.82529816899</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0.00072</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>56.9378807720777</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.7842191</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1867.41363211951</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>57.6277535260982</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.7746966</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>2057.61316872428</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>58.324511750931</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0.7652919</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2241.90113216007</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>59.0343166482676</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0.7559119</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2417.79497098646</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0.00039</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>59.749470470318</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>0.7467794</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>2596.05399792316</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0.00028</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>60.4700945147577</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>0.7377695</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>2917.57840991977</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>61.2017577144816</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.7288169</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>2981.51460942159</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>61.9394479956395</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.719992</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>3316.7495854063</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.00102</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>62.6908151686696</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.7112521</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>451</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>3361.34453781513</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>63.4511727363001</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.7026322</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>3527.95907567472</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>3729.95151063036</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2265.00566251416</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>102.219700802936</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.731632</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>50.6131786594594</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.80254655</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>93.7650903192233</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.79971775</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2321.26276694522</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>202.20197955738</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.65722045</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>100.846098768669</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.79909075</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>97.6314607619159</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.78391905</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2391.20038259206</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>202.447591379782</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.6621652</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>101.183851057371</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.7991532</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>101.435309631283</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.76608905</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2449.17952485917</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>934.23019431988</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>10689.4708711919</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>103.71292263016</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.7486821</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2502.18941573877</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>302.43459851807</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.54368015</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>101.643576634175</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.7989709</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>106.012498873617</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.7319271</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2562.13169356905</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1308.8148681369</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0.00042</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>14545.4545454545</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>108.363494505971</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.71539145</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2615.40473388257</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1491.64677804296</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0.00064</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>16556.2913907285</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>110.731547971675</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.69921145</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2672.72484297742</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1686.76731044952</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0.00036</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>20161.2903225806</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>113.17017965766</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.68346145</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2734.48181569593</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1860.11904761905</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>20964.3605870021</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>115.669116924127</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.66809775</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2791.73646007817</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>602.427783969397</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.30036</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>101.992421963048</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.7989612</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>118.214488367694</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.65294275</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>2851.43997718848</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2236.88625433397</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>24813.8957816377</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>120.785346321784</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.63819535</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2912.0559114735</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2425.41838467136</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>27510.3163686382</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>123.413366901769</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.623931</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2969.56198960653</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>2615.40473388257</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>27932.9608938547</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>126.113741983895</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.6099023</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3024.80338777979</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2797.2027972028</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>32573.2899022801</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>128.835264788678</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.5962623</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3079.29176289453</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2997.60191846523</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>36101.083032491</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>131.655168781926</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.58272795</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3149.6062992126</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>902.527075812274</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.162315</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>102.195151861996</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.7988516</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>134.523417163843</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.56964795</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3210.27287319422</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>451</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>3506.31136044881</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0.00072</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>39603.9603960396</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>137.463658045404</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.55657425</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3277.07684745207</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>3553.66027007818</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>36697.247706422</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>140.433659139423</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.54392425</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3335.55703802535</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>3732.03955961933</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>44052.8634361234</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>143.502905933845</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.53149055</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>154.086349558545</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.688430757846211</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>292.904425763744</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.522884335578322</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>100.00700045503</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.547391363043185</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>59.1617414763147</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.835904720476398</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>300.08102147069</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.509832450837746</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>306.158344303953</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.52240113799431</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>292.95591035594</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.534182329088355</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>97.2162272515166</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.745176274118629</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>304.800585214198</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.501792491037545</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>303.975986017175</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.527892360538197</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>101.255562699662</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.547240963795181</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>100.307943847894</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.733233483832581</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>309.88209045413</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.493501332493338</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>872.528575167961</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.152054239728801</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>10565.29318542</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>101.772874611357</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.721090794546027</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>6437.10975217251</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>307.514068698299</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.533502332488338</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>299.793143765083</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.534104829475853</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>280.636199082324</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.53440632796836</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>6497.75828460039</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1312.08423538674</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.0618615406922965</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>14285.7857142857</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>288.160965910728</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.530641346793266</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>6557.40983606557</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>605.549836502362</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.292678536607317</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>301.760765261474</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.534623126884366</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>290.433178920465</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.526366368168159</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>6631.33289124668</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1732.81060474788</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.0274744626276869</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>17636.7724867725</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>292.908715455251</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.522106389468053</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>6702.44638069705</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1774.00212879191</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.0254082729586352</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>20855.1616266945</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>294.969323343756</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.518206408967955</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>6759.07401149037</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2057.20016457519</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.0140077299613502</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>23175.0869061414</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>297.531984528414</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.513515232423838</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>6870.52559257987</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>607.647201798627</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.295378523107384</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>303.597613734687</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.534081079594602</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>305.512953684468</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.509540252298739</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>6925.24238227147</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2355.44694382287</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.008639956800216</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>28169.1549295775</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>307.897532213618</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.505865270673647</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>6980.83769633508</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>2619.52848722986</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.00350998245008775</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>27359.9179206566</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>310.213736195558</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.501905290473548</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>7039.80992608237</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2916.74201545866</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.0002999985000075</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>32051.4423076923</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>312.731224492987</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.49758531207344</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>7089.71995746189</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2978.42144452718</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>33112.7483443709</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>314.853121753093</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.494135329323353</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>7127.6193870278</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>3214.41658630665</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.001319993400033</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>36297.8221415608</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>317.487102150964</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.489665351673242</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>7171.06489781284</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>451</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>3348.97856664434</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>33501.0050251256</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>319.95040793473</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.48558537207314</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>7220.25270758123</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>3557.47065101387</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>43956.2637362637</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>322.317126234871</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.481745391273044</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>7275.40923972354</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>3734.84593837535</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>43478.4782608696</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>324.729663906478</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.477796611016945</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>170.654288542271</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.6773416</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>127.65278442636</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.74319975</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>83.6484090072607</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.79035045</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>45.7695229900314</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.86011505</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>251.259437932637</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.5855896</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>254.644071249411</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.55587495</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>166.472448809722</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.613149</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>71.1624746038919</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.7809104</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>257.894804709159</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5841361</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>255.476783547295</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.5927359</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>167.369619066747</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.6530692</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>121.838296213266</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.7207147</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>500.0500050005</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.36235</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>511.02537240974</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.3568356</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>489.141068284093</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.3651606</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>161.44916772954</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.67872365</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>511.116790186558</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.36225</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>497.933575661007</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.36072235</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>250.928435210278</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.5717</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>234.810683886117</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.58939625</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>511.391239868061</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.36225</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>499.987500312492</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.36125</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>168.880407339543</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.60180135</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>237.967755369147</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.58779315</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>511.548200629204</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.36215</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>500.137537822901</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.020825</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>169.017417244847</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.65301065</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>241.114915368665</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.585726</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>511.757631585681</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.3621</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>511.875511875512</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.362525</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>499.787590274133</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.363353</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>244.143605268619</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.58437125</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>357142.857142857</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1937.23363037582</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>21857.9234972678</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>487.674038672551</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.3626</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>377358.490566038</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1947.04049844237</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.0178</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>24271.8446601942</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>488.48398993723</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.362575</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>377358.490566038</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1006.59318536414</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.1377</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>502.27278434918</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.3633</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>488.60332738866</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.362575</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>384615.384615385</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2433.3860566979</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.004625</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>25906.7357512953</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>488.722723163014</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.362525</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>384615.384615385</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>997.854612582947</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>253.816769673972</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.46089655</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>488.842177303058</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.362525</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>384615.384615385</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1011.02011930037</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.1386428</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>504.770077229822</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.3651178</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>499.31344401448</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.362525</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>384615.384615385</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>999.30048965724</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.1381</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>254.023090698945</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.5812041</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>499.575360943198</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.36245</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>384615.384615385</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1000.200040008</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.13655</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>254.039223656133</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.5393</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>499.65024482862</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.36245</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>384615.384615385</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>451</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1012.4531740407</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.13935</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>505.497282952104</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.3633</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>499.750124937531</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.3624</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>384615.384615385</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1003.86487978718</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.05625</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>170.078150910343</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.6717919</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>499.937507811524</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.36235</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>645161.290322581</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>3881.23423248593</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>45558.0865603645</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>511.705257771524</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.362175</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>143.085871268216</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.706293924121518</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>232.798295950555</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.592129107417852</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>171.855747170881</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.626471670566589</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>47.0522363480667</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.854119417611648</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>344.187647352389</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.471936661266775</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>236.749961528901</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.570193046139077</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>140.116714889205</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.61794944101118</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>98.0931081160614</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.767269454610908</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>352.305795314427</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.466813313733725</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>664.001859168022</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.235232145357093</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>343.974546392639</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.433055188896222</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>115.370504966601</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.75157566848663</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>363.610580856286</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.462248155036899</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>357.584209397125</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.472338553228935</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>346.375255446642</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.476243025139497</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>170.593654042989</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.663447831043379</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>367.776102386819</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.457117607647847</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>694.723679183021</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.235677086458271</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>677.749915282955</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.241941961160777</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>173.656791581287</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.657752294954101</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>699.82854543546</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.225721985560289</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1355.86739882042</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.00608987820243595</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>14064.9789029536</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>228.67269588283</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.568879972400552</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>720.865020724455</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.223517029659407</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>716.552020636285</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.236597118057639</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>688.102938140783</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.241220725585488</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>328.678246865294</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.484028669426612</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>728.134556574924</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.221557068858623</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>698.972530928916</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.0712585748285034</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>177.459540034072</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.558408231835363</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>330.716317216747</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.481086928261435</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>735.389932713167</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.219620607587848</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>716.60336796847</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.239667006659867</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>693.134638710795</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.241976960460791</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>338.834770528741</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.478615227695446</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>742.874122497493</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.217695646087078</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>715.705850778315</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.240620937581248</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>695.230812013348</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.242233155336893</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>340.780371443176</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.47580063398732</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>750.14627559823</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.215315693686126</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2057.01943844492</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.0144897102057959</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>25063.1578947368</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>346.171420659097</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.473282484350313</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>757.046065331769</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.213635727285454</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2389.53405017921</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.00572973540529189</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>26490.5960264901</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>348.032784032575</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.470693436131277</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>10604.6659597031</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>2692.20621887199</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.00251994960100798</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>28209.3088857546</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>642.314856445501</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.241716665666687</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>10689.6846606093</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1405.11451454264</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.0635587288254235</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>702.483228548348</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.241976960460791</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>645.674070247934</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.240771684566309</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>10764.4779332616</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>3062.84839203675</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.00189146217075658</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>33168.1592039801</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>648.227134245155</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.239756704865903</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>10828.5868976719</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1407.68581081081</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.0613458230835383</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>702.014742014742</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.242222205555889</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>651.712339926358</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.238356732865343</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>10875.6933115824</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>451</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1411.95905400635</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.0622987540249195</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>702.977048258409</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.241941961160777</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>654.506184959749</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.237271754564909</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>10917.2489082969</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1412.3578843302</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.0603387932241355</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>702.878228782288</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.242284254314914</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>657.237685255167</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.236151776964461</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>10965.1315789474</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>3441.22505161734</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0.000699986000279994</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>43104.3103448276</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>660.689746300211</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.234611807763845</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>198.216055500496</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.63668075</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>243.90243902439</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.5541928</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>99.9810036093142</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.70792925</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>45.5804095399797</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.8488912</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>252.257706472933</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.56896045</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>328.736501257417</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.44070635</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>143.126015300171</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.53956715</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>71.5901606483205</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.7993143</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>338.896890621029</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.48761585</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>334.25811411572</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.48920565</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>199.944015675611</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.5852838</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>91.7220820912635</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.74374685</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>505.241884552229</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.351775</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>500.513025851498</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.35513805</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>249.95938160049</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.47334055</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>161.471326729156</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.6525487</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>506.25221485344</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.3513859</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>505.292943584043</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.3455524</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>201.775625504439</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.52645025</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>165.453342157512</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.6496482</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>506.957998529822</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.350975</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>505.765729314182</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.35846645</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>333.783941654567</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.45076425</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>166.375509524998</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.64653625</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>976.324139614352</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.13105</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>511.456628477905</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.3568088</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>497.240316244841</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.3587716</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>244.66328215793</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.56976695</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>977.326035965598</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>990.00099000099</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.12895</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>335.249844946947</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.2198941</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>246.075102121167</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.5692178</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1000.25006251563</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.13095</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>977.708251857646</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.13242865</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>335.891708513175</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.46949065</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>323.682208807393</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.46820945</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1001.15132402263</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.13095</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>987.849451743554</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.13721315</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>336.456773715997</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.44716925</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>328.477343275248</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.4679192</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1001.65272699955</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.13095</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>996.313639533725</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.13723</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>337.239693111879</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.375167</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>332.911645249351</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.4676797</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1002.25507391631</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.13085</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1022.75632830478</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.1302</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>987.800661826443</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.13185285</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>338.106266799655</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.4672917</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1002.90843445993</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.13085</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1000.60036021613</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.1337</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>503.57538523517</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.251135</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>338.398023755541</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.4669883</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1003.26059694006</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.13085</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1023.48907425413</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>991.178511249876</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.1325118</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>338.615738859542</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.46670485</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1004.01606425703</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.1308</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1023.38433198588</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.13135</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>994.777418552599</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.13190285</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>338.914119162204</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.46630485</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1026.48326832273</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.1308</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1000.70049034324</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.13525</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>504.400897833598</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.25363265</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>498.690936292233</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.2631322</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1027.22136620442</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.13065</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>451</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1000.100010001</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.1321</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>338.380847644023</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.2198941</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>499.114072521275</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.2630453</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1028.17191034341</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.1306</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1023.96067990989</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.1322</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>997.9541939025</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.1325236</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>499.537927417139</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.2627321</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>158730.158730159</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1012.14574898785</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.06885</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>505.612296491051</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.32675645</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>971.770079199261</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.1320003</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/periodicRunnings.xlsx
+++ b/periodicRunnings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="499" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="499" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_10" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,10 @@
     <sheet name="periodic_700" sheetId="7" r:id="rId7"/>
     <sheet name="periodic_1000" sheetId="8" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -175,7 +177,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -188,7 +190,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>periodic_100</a:t>
             </a:r>
           </a:p>
@@ -208,7 +210,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -245,7 +247,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -407,7 +409,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -731,7 +733,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -886,11 +888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317907040"/>
-        <c:axId val="316306144"/>
+        <c:axId val="150928968"/>
+        <c:axId val="370068112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317907040"/>
+        <c:axId val="150928968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -918,7 +920,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -931,7 +933,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>BlockSize</a:t>
                 </a:r>
               </a:p>
@@ -951,7 +953,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -989,7 +991,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1004,12 +1006,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316306144"/>
+        <c:crossAx val="370068112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316306144"/>
+        <c:axId val="370068112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1038,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1049,7 +1051,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Ratio</a:t>
                 </a:r>
               </a:p>
@@ -1069,7 +1071,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1107,7 +1109,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1122,7 +1124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317907040"/>
+        <c:crossAx val="150928968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1150,7 +1152,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1224,7 +1226,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1237,7 +1239,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>periodic_300</a:t>
             </a:r>
           </a:p>
@@ -1257,7 +1259,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1294,7 +1296,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1456,7 +1458,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1618,7 +1620,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1780,7 +1782,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -1935,11 +1937,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316303008"/>
-        <c:axId val="316307320"/>
+        <c:axId val="311634160"/>
+        <c:axId val="311635728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="316303008"/>
+        <c:axId val="311634160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -1967,7 +1969,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1980,7 +1982,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>BlockSize</a:t>
                 </a:r>
               </a:p>
@@ -2000,7 +2002,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2038,7 +2040,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2053,12 +2055,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316307320"/>
+        <c:crossAx val="311635728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316307320"/>
+        <c:axId val="311635728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,7 +2087,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2098,7 +2100,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Ratio</a:t>
                 </a:r>
               </a:p>
@@ -2118,7 +2120,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2156,7 +2158,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2171,7 +2173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316303008"/>
+        <c:crossAx val="311634160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2199,7 +2201,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2273,7 +2275,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2286,7 +2288,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>periodic_500</a:t>
             </a:r>
           </a:p>
@@ -2306,7 +2308,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2324,7 +2326,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13734492563429571"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.63558070866141736"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2343,7 +2355,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2505,7 +2517,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2667,7 +2679,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -2829,7 +2841,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -2984,11 +2996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316304576"/>
-        <c:axId val="316303792"/>
+        <c:axId val="311639648"/>
+        <c:axId val="311633768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="316304576"/>
+        <c:axId val="311639648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -3017,7 +3029,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3030,7 +3042,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Block Size</a:t>
                 </a:r>
               </a:p>
@@ -3050,7 +3062,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3088,7 +3100,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3103,12 +3115,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316303792"/>
+        <c:crossAx val="311633768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316303792"/>
+        <c:axId val="311633768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3135,7 +3147,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3148,7 +3160,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Ratio</a:t>
                 </a:r>
               </a:p>
@@ -3168,7 +3180,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3206,7 +3218,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3221,7 +3233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316304576"/>
+        <c:crossAx val="311639648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3249,7 +3261,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3323,7 +3335,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3362,7 +3374,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3399,7 +3411,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3561,7 +3573,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3723,7 +3735,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -3885,7 +3897,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -4040,11 +4052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316308496"/>
-        <c:axId val="269047936"/>
+        <c:axId val="311637296"/>
+        <c:axId val="311637688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="316308496"/>
+        <c:axId val="311637296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -4073,7 +4085,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4106,7 +4118,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4144,7 +4156,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4159,12 +4171,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269047936"/>
+        <c:crossAx val="311637688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269047936"/>
+        <c:axId val="311637688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4191,7 +4203,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4224,7 +4236,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4262,7 +4274,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4277,7 +4289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316308496"/>
+        <c:crossAx val="311637296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4305,7 +4317,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4345,7 +4357,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4379,7 +4391,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4392,7 +4404,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>periodic_1000</a:t>
             </a:r>
           </a:p>
@@ -4412,7 +4424,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5090,11 +5102,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269046760"/>
-        <c:axId val="269048328"/>
+        <c:axId val="311634552"/>
+        <c:axId val="311638080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269046760"/>
+        <c:axId val="311634552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -5123,7 +5135,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5136,7 +5148,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>BlockSize</a:t>
                 </a:r>
               </a:p>
@@ -5156,7 +5168,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5194,7 +5206,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5209,12 +5221,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269048328"/>
+        <c:crossAx val="311638080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269048328"/>
+        <c:axId val="311638080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5241,7 +5253,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5254,7 +5266,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Ratio</a:t>
                 </a:r>
               </a:p>
@@ -5274,7 +5286,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5312,7 +5324,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5327,7 +5339,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269046760"/>
+        <c:crossAx val="311634552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5355,7 +5367,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8365,6 +8377,712 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="archive_set-_upto_1000"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="47">
+          <cell r="B47">
+            <v>222.95617857261601</v>
+          </cell>
+          <cell r="C47">
+            <v>0.41619838658535602</v>
+          </cell>
+          <cell r="J47">
+            <v>195.392460633144</v>
+          </cell>
+          <cell r="K47">
+            <v>0.418634688005043</v>
+          </cell>
+          <cell r="N47">
+            <v>112.27600473016101</v>
+          </cell>
+          <cell r="O47">
+            <v>0.451778043448194</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>342.71179624354397</v>
+          </cell>
+          <cell r="C48">
+            <v>0.37990406247632602</v>
+          </cell>
+          <cell r="J48">
+            <v>302.79959129445598</v>
+          </cell>
+          <cell r="K48">
+            <v>0.37294473988103599</v>
+          </cell>
+          <cell r="N48">
+            <v>171.87111099755401</v>
+          </cell>
+          <cell r="O48">
+            <v>0.41172093999533399</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>490.554050838862</v>
+          </cell>
+          <cell r="C49">
+            <v>0.34180101357405401</v>
+          </cell>
+          <cell r="J49">
+            <v>396.82225766551898</v>
+          </cell>
+          <cell r="K49">
+            <v>0.34990117203585602</v>
+          </cell>
+          <cell r="N49">
+            <v>223.19755335222499</v>
+          </cell>
+          <cell r="O49">
+            <v>0.379335918955925</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>620.10088308646596</v>
+          </cell>
+          <cell r="C50">
+            <v>0.32698272126181899</v>
+          </cell>
+          <cell r="J50">
+            <v>516.94414397713501</v>
+          </cell>
+          <cell r="K50">
+            <v>0.31435277283281798</v>
+          </cell>
+          <cell r="N50">
+            <v>334.97737472203698</v>
+          </cell>
+          <cell r="O50">
+            <v>0.37656998310766299</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>736.95984848585704</v>
+          </cell>
+          <cell r="C51">
+            <v>0.31573688105090397</v>
+          </cell>
+          <cell r="J51">
+            <v>638.256853301516</v>
+          </cell>
+          <cell r="K51">
+            <v>0.29451988926274802</v>
+          </cell>
+          <cell r="N51">
+            <v>410.77049165667501</v>
+          </cell>
+          <cell r="O51">
+            <v>0.32616824008392398</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>882.61766015358603</v>
+          </cell>
+          <cell r="C52">
+            <v>0.305178634413179</v>
+          </cell>
+          <cell r="J52">
+            <v>732.98027250219604</v>
+          </cell>
+          <cell r="K52">
+            <v>0.28234477982279699</v>
+          </cell>
+          <cell r="N52">
+            <v>456.27498022226803</v>
+          </cell>
+          <cell r="O52">
+            <v>0.30562553629865702</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>1077.3630642734099</v>
+          </cell>
+          <cell r="C53">
+            <v>0.28946908501349999</v>
+          </cell>
+          <cell r="J53">
+            <v>851.07892596625595</v>
+          </cell>
+          <cell r="K53">
+            <v>0.28108450799342</v>
+          </cell>
+          <cell r="N53">
+            <v>618.32907850955303</v>
+          </cell>
+          <cell r="O53">
+            <v>0.30857754053085801</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>1242.0103465529301</v>
+          </cell>
+          <cell r="C54">
+            <v>0.27753515942805002</v>
+          </cell>
+          <cell r="J54">
+            <v>875.82387458679705</v>
+          </cell>
+          <cell r="K54">
+            <v>0.28914770784232702</v>
+          </cell>
+          <cell r="N54">
+            <v>507.64466065965502</v>
+          </cell>
+          <cell r="O54">
+            <v>0.31638745693813503</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>1357.96673744536</v>
+          </cell>
+          <cell r="C55">
+            <v>0.27312608340626399</v>
+          </cell>
+          <cell r="J55">
+            <v>1052.32398553951</v>
+          </cell>
+          <cell r="K55">
+            <v>0.29218798091628201</v>
+          </cell>
+          <cell r="N55">
+            <v>733.98095112370004</v>
+          </cell>
+          <cell r="O55">
+            <v>0.322937308488977</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>1487.2648598938899</v>
+          </cell>
+          <cell r="C56">
+            <v>0.262845752215985</v>
+          </cell>
+          <cell r="J56">
+            <v>1153.08096738053</v>
+          </cell>
+          <cell r="K56">
+            <v>0.283685673008367</v>
+          </cell>
+          <cell r="N56">
+            <v>677.60084764716896</v>
+          </cell>
+          <cell r="O56">
+            <v>0.30317970740677502</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>1612.8403120203</v>
+          </cell>
+          <cell r="C57">
+            <v>0.25837357538301098</v>
+          </cell>
+          <cell r="J57">
+            <v>1332.4438153056799</v>
+          </cell>
+          <cell r="K57">
+            <v>0.26004579301200997</v>
+          </cell>
+          <cell r="N57">
+            <v>970.02175379340099</v>
+          </cell>
+          <cell r="O57">
+            <v>0.26987182824837302</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>1736.6892201638</v>
+          </cell>
+          <cell r="C58">
+            <v>0.25567641895558102</v>
+          </cell>
+          <cell r="J58">
+            <v>1360.8575119762099</v>
+          </cell>
+          <cell r="K58">
+            <v>0.24479826149111</v>
+          </cell>
+          <cell r="N58">
+            <v>769.10730967271604</v>
+          </cell>
+          <cell r="O58">
+            <v>0.29041234015777501</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>1831.28538506062</v>
+          </cell>
+          <cell r="C59">
+            <v>0.253712325778918</v>
+          </cell>
+          <cell r="J59">
+            <v>1508.0352219092999</v>
+          </cell>
+          <cell r="K59">
+            <v>0.233656271242354</v>
+          </cell>
+          <cell r="N59">
+            <v>1025.0171375780601</v>
+          </cell>
+          <cell r="O59">
+            <v>0.24773835375748299</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>1947.5519015765001</v>
+          </cell>
+          <cell r="C60">
+            <v>0.25159953625742199</v>
+          </cell>
+          <cell r="J60">
+            <v>1586.18391975449</v>
+          </cell>
+          <cell r="K60">
+            <v>0.23292540759858099</v>
+          </cell>
+          <cell r="N60">
+            <v>1042.26525345812</v>
+          </cell>
+          <cell r="O60">
+            <v>0.26432920623814699</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>2066.7634478703199</v>
+          </cell>
+          <cell r="C61">
+            <v>0.249849668669168</v>
+          </cell>
+          <cell r="J61">
+            <v>1823.6873031534101</v>
+          </cell>
+          <cell r="K61">
+            <v>0.22996809572725499</v>
+          </cell>
+          <cell r="N61">
+            <v>1357.5884853463399</v>
+          </cell>
+          <cell r="O61">
+            <v>0.26822230067725</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>2160.2788642136802</v>
+          </cell>
+          <cell r="C62">
+            <v>0.24830127785615699</v>
+          </cell>
+          <cell r="J62">
+            <v>1754.5074584558399</v>
+          </cell>
+          <cell r="K62">
+            <v>0.25870540501542</v>
+          </cell>
+          <cell r="N62">
+            <v>1032.0535114684899</v>
+          </cell>
+          <cell r="O62">
+            <v>0.29706729247597202</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>2392.6084773829198</v>
+          </cell>
+          <cell r="C63">
+            <v>0.23027216972756201</v>
+          </cell>
+          <cell r="J63">
+            <v>2033.6683270164499</v>
+          </cell>
+          <cell r="K63">
+            <v>0.219255507914765</v>
+          </cell>
+          <cell r="N63">
+            <v>1768.4542086803699</v>
+          </cell>
+          <cell r="O63">
+            <v>0.23360809045537401</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>2529.5140018483598</v>
+          </cell>
+          <cell r="C64">
+            <v>0.224646805569581</v>
+          </cell>
+          <cell r="J64">
+            <v>1926.9701532486099</v>
+          </cell>
+          <cell r="K64">
+            <v>0.25327176032984799</v>
+          </cell>
+          <cell r="N64">
+            <v>1066.6183645224501</v>
+          </cell>
+          <cell r="O64">
+            <v>0.28595685409954602</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>2631.2355649824099</v>
+          </cell>
+          <cell r="C65">
+            <v>0.22333985104718901</v>
+          </cell>
+          <cell r="J65">
+            <v>2257.36698572352</v>
+          </cell>
+          <cell r="K65">
+            <v>0.21826698992028101</v>
+          </cell>
+          <cell r="N65">
+            <v>1645.8793734993501</v>
+          </cell>
+          <cell r="O65">
+            <v>0.230475630095268</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="F89">
+            <v>49.7996982326422</v>
+          </cell>
+          <cell r="G89">
+            <v>0.55386012660142503</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="F90">
+            <v>74.922491132785495</v>
+          </cell>
+          <cell r="G90">
+            <v>0.51345877125030803</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="F91">
+            <v>100.90833097634</v>
+          </cell>
+          <cell r="G91">
+            <v>0.48554754598343097</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="F92">
+            <v>122.72267190670399</v>
+          </cell>
+          <cell r="G92">
+            <v>0.46354486300779002</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="F93">
+            <v>144.17704442178501</v>
+          </cell>
+          <cell r="G93">
+            <v>0.44360748884789197</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="F94">
+            <v>167.44759176935901</v>
+          </cell>
+          <cell r="G94">
+            <v>0.43058449499380902</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="F95">
+            <v>191.048506309993</v>
+          </cell>
+          <cell r="G95">
+            <v>0.41708142583798702</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="F96">
+            <v>212.73316681732601</v>
+          </cell>
+          <cell r="G96">
+            <v>0.40615920620727203</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="F97">
+            <v>236.50472401348699</v>
+          </cell>
+          <cell r="G97">
+            <v>0.39618579201829901</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="F98">
+            <v>259.03171881347498</v>
+          </cell>
+          <cell r="G98">
+            <v>0.38553480062968898</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="F99">
+            <v>278.840500812588</v>
+          </cell>
+          <cell r="G99">
+            <v>0.37982141588364599</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="F100">
+            <v>300.37094189975198</v>
+          </cell>
+          <cell r="G100">
+            <v>0.37293895992565401</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="F101">
+            <v>319.04355865192201</v>
+          </cell>
+          <cell r="G101">
+            <v>0.36759502510626002</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="F102">
+            <v>338.06841706511898</v>
+          </cell>
+          <cell r="G102">
+            <v>0.36242477890359298</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="F103">
+            <v>354.80280950148199</v>
+          </cell>
+          <cell r="G103">
+            <v>0.358482380199319</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="F104">
+            <v>377.53489930070998</v>
+          </cell>
+          <cell r="G104">
+            <v>0.34803900034649599</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="F105">
+            <v>398.854600758689</v>
+          </cell>
+          <cell r="G105">
+            <v>0.34411507261777302</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="F106">
+            <v>419.830225547716</v>
+          </cell>
+          <cell r="G106">
+            <v>0.33983065418925801</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="F107">
+            <v>439.38339780998098</v>
+          </cell>
+          <cell r="G107">
+            <v>0.33632221983920502</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="F108">
+            <v>462.730382391381</v>
+          </cell>
+          <cell r="G108">
+            <v>0.33207685467047499</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="F109">
+            <v>481.12589331572599</v>
+          </cell>
+          <cell r="G109">
+            <v>0.32899906213520802</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="F110">
+            <v>503.52604888678502</v>
+          </cell>
+          <cell r="G110">
+            <v>0.32548324455010202</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="F111">
+            <v>521.42292866963999</v>
+          </cell>
+          <cell r="G111">
+            <v>0.32203311034285798</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="F112">
+            <v>548.48230187428499</v>
+          </cell>
+          <cell r="G112">
+            <v>0.31863364152953899</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="F113">
+            <v>565.52257528463701</v>
+          </cell>
+          <cell r="G113">
+            <v>0.316339441695412</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="F114">
+            <v>587.69272252773897</v>
+          </cell>
+          <cell r="G114">
+            <v>0.31434495870871498</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="F115">
+            <v>607.88947450944704</v>
+          </cell>
+          <cell r="G115">
+            <v>0.31256047589847702</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="F116">
+            <v>626.44760554398601</v>
+          </cell>
+          <cell r="G116">
+            <v>0.31102980577820599</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="F117">
+            <v>646.30946154580499</v>
+          </cell>
+          <cell r="G117">
+            <v>0.30919902216543099</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="F118">
+            <v>666.87018612616396</v>
+          </cell>
+          <cell r="G118">
+            <v>0.30768744080796601</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="F119">
+            <v>693.24733464435099</v>
+          </cell>
+          <cell r="G119">
+            <v>0.30631522128066202</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="F120">
+            <v>715.79816977699397</v>
+          </cell>
+          <cell r="G120">
+            <v>0.30474448452882003</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="F121">
+            <v>742.01450686643898</v>
+          </cell>
+          <cell r="G121">
+            <v>0.30342956547163502</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="F122">
+            <v>764.597336355126</v>
+          </cell>
+          <cell r="G122">
+            <v>0.30175140768283598</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="F123">
+            <v>789.66697014710599</v>
+          </cell>
+          <cell r="G123">
+            <v>0.2997114413568</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="F124">
+            <v>818.19042042537797</v>
+          </cell>
+          <cell r="G124">
+            <v>0.297723721684654</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="F125">
+            <v>836.78285830854099</v>
+          </cell>
+          <cell r="G125">
+            <v>0.29624351059721898</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="F126">
+            <v>855.73828787259004</v>
+          </cell>
+          <cell r="G126">
+            <v>0.29476068396944399</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="F127">
+            <v>885.59698222548798</v>
+          </cell>
+          <cell r="G127">
+            <v>0.29295035736038599</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9708,7 +10426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -10742,7 +11460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
@@ -12608,7 +13326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -14475,7 +15193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
